--- a/ExcelWorkerUnitTest/TestData/3Rows.xlsx
+++ b/ExcelWorkerUnitTest/TestData/3Rows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jszom\source\repos\IndustrialUnitProvider\ExcelWorkerUnitTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57AE66B-0845-4354-8FDE-30494BCB8176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCCB59-62EC-4333-8D26-BDE10073DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Blower</t>
   </si>
@@ -94,19 +94,28 @@
     <t>MVV</t>
   </si>
   <si>
+    <t>VAG cerex</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>MVV 5.21</t>
   </si>
   <si>
-    <t>VAG cerex</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>650.54</t>
+  </si>
+  <si>
+    <t>30.45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -137,11 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7CE1A-B248-4F9B-8BFE-A16B3FE952C7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +486,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -505,10 +518,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>650</v>
+        <v>25.5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
       </c>
       <c r="E2">
         <v>55</v>
@@ -530,11 +543,11 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>30</v>
+      <c r="C3" t="s">
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>600</v>
+        <v>600.42999999999995</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -558,18 +571,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69254F52-60E9-4095-8987-77C768816A41}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="17.28515625" customWidth="1"/>
+    <col min="2" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -577,7 +592,7 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E1" t="s">
@@ -603,8 +618,8 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1">
-        <v>50</v>
+      <c r="D2" s="2">
+        <v>50.8</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -613,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
@@ -629,8 +644,8 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
-        <v>65</v>
+      <c r="D3" s="2">
+        <v>65.599999999999994</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -639,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>114</v>

--- a/ExcelWorkerUnitTest/TestData/3Rows.xlsx
+++ b/ExcelWorkerUnitTest/TestData/3Rows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jszom\source\repos\IndustrialUnitProvider\ExcelWorkerUnitTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABCCB59-62EC-4333-8D26-BDE10073DC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84D68B1-A413-4D0D-9812-36E49AEB4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{1A917C4D-1CAA-4560-933B-C6D9B5FC1748}"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -100,13 +100,13 @@
     <t>Id</t>
   </si>
   <si>
-    <t>MVV 5.21</t>
-  </si>
-  <si>
-    <t>650.54</t>
-  </si>
-  <si>
-    <t>30.45</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>MVV 5,21</t>
   </si>
 </sst>
 </file>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -155,6 +155,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD7CE1A-B248-4F9B-8BFE-A16B3FE952C7}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,11 +521,11 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>25.5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="D2">
+        <v>650</v>
       </c>
       <c r="E2">
         <v>55</v>
@@ -543,11 +547,11 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
+      <c r="C3" s="5">
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>600.42999999999995</v>
+        <v>600</v>
       </c>
       <c r="E3">
         <v>60</v>
@@ -564,6 +568,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -571,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69254F52-60E9-4095-8987-77C768816A41}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,8 +623,8 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2">
-        <v>50.8</v>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -628,7 +633,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1">
         <v>13</v>
@@ -644,8 +649,8 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2">
-        <v>65.599999999999994</v>
+      <c r="D3" s="4">
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -662,5 +667,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>